--- a/testing_tools_and_measures/measures.xlsb.xlsx
+++ b/testing_tools_and_measures/measures.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruteryan\Desktop\Testing_folders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1752D2-66FB-49F9-B2E3-1F4F8EED005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D5857-3F80-4F87-B967-4AFC935FBBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>CP-VTON (on VITON ds)</t>
   </si>
@@ -167,6 +166,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ours + Super-Resolution </t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>398.85</t>
+  </si>
+  <si>
+    <t>I risultati in seguito allo step della super-resolution sembrano essere peggiori, ma ciò è compensato dal fatto che l'immagine sia visivamente più nitida e alcune parti</t>
+  </si>
+  <si>
+    <t>vengono generate dalla ControlNet attraverso stable-diffusion. Ciò porta le immagini ad avere piccole differenze in cui zone blurrate/indefinite vengono modificate rispetto alla foto originale.</t>
+  </si>
+  <si>
+    <t>Un apparente peggioramento di performance è compensato però da una migliore qualità visiva e risoluzione.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -239,6 +256,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,6 +680,9 @@
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
@@ -739,6 +760,9 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -759,6 +783,29 @@
       </c>
       <c r="B29" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
